--- a/data/trans_orig/P36S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33CEB35-5202-48AF-89D0-6E7C8258A872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E8BC6E-C92E-4587-9092-6C5EC09B1AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59C292F7-963D-4C4D-9D0D-DD38F0961F33}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87A3A347-1D0E-4040-9627-127483CCC37D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="642">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -79,1882 +79,1870 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,1%</t>
+    <t>13,71%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>12,85%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>34,77%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>54,71%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -1963,16 +1951,10 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -2393,7 +2375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F24C939-1E89-4598-9ABA-7604329C2440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256C7841-488E-4F8B-A73E-FCEAA5B8C52C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3166,10 +3148,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3166,13 @@
         <v>11367</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3199,13 +3181,13 @@
         <v>7817</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3214,13 +3196,13 @@
         <v>19183</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3217,13 @@
         <v>26856</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -3250,13 +3232,13 @@
         <v>40133</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -3265,13 +3247,13 @@
         <v>66989</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,37 +3274,37 @@
         <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,37 +3325,37 @@
         <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3411,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3441,13 +3423,13 @@
         <v>3859</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3456,13 +3438,13 @@
         <v>3994</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3471,13 +3453,13 @@
         <v>7853</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3474,13 @@
         <v>11768</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3507,13 +3489,13 @@
         <v>4866</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -3522,13 +3504,13 @@
         <v>16635</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3525,13 @@
         <v>12410</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3558,13 +3540,13 @@
         <v>29353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -3573,13 +3555,13 @@
         <v>41763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3582,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3615,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3630,7 +3612,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,7 +3633,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3666,7 +3648,7 @@
         <v>39</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3681,7 +3663,7 @@
         <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3719,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3749,13 +3731,13 @@
         <v>935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3764,13 +3746,13 @@
         <v>2112</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3779,13 +3761,13 @@
         <v>3047</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3782,13 @@
         <v>2046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3815,13 +3797,13 @@
         <v>3373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3830,13 +3812,13 @@
         <v>5419</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3833,13 @@
         <v>11729</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -3866,13 +3848,13 @@
         <v>18578</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -3881,13 +3863,13 @@
         <v>30306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +3890,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3923,7 +3905,7 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3938,7 +3920,7 @@
         <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3968,13 +3950,13 @@
         <v>976</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3983,13 +3965,13 @@
         <v>976</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,7 +4027,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4063,7 +4045,7 @@
         <v>39</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4072,13 +4054,13 @@
         <v>2396</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -4087,13 +4069,13 @@
         <v>2396</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4090,13 @@
         <v>821</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -4123,13 +4105,13 @@
         <v>4993</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4138,13 +4120,13 @@
         <v>5814</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4141,13 @@
         <v>22844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -4174,13 +4156,13 @@
         <v>34426</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -4189,13 +4171,13 @@
         <v>57269</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4231,7 +4213,7 @@
         <v>39</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4246,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4282,7 +4264,7 @@
         <v>39</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4297,7 +4279,7 @@
         <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4347,13 @@
         <v>12239</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -4380,13 +4362,13 @@
         <v>15071</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -4398,10 +4380,10 @@
         <v>58</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4398,13 @@
         <v>52589</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H41" s="7">
         <v>34</v>
@@ -4431,13 +4413,13 @@
         <v>34236</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M41" s="7">
         <v>86</v>
@@ -4446,13 +4428,13 @@
         <v>86825</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4449,13 @@
         <v>137933</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H42" s="7">
         <v>168</v>
@@ -4482,13 +4464,13 @@
         <v>179561</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M42" s="7">
         <v>296</v>
@@ -4497,13 +4479,13 @@
         <v>317494</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4506,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -4533,13 +4515,13 @@
         <v>1134</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -4548,13 +4530,13 @@
         <v>1134</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,7 +4557,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
@@ -4584,13 +4566,13 @@
         <v>5783</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -4599,13 +4581,13 @@
         <v>5783</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,7 +4643,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +4665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DB4FF3-C185-4629-8911-237AFB1FBF2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A120EF08-4938-44E4-B392-3E006AE33B80}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4700,7 +4682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4807,13 +4789,13 @@
         <v>952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4828,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4837,13 +4819,13 @@
         <v>952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4840,13 @@
         <v>18190</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4873,13 +4855,13 @@
         <v>4068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -4888,13 +4870,13 @@
         <v>22258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4891,13 @@
         <v>34250</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4924,13 +4906,13 @@
         <v>22506</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -4939,13 +4921,13 @@
         <v>56755</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4981,7 +4963,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5017,7 +4999,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5032,7 +5014,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5115,13 +5097,13 @@
         <v>1041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5130,13 +5112,13 @@
         <v>2134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5145,13 +5127,13 @@
         <v>3176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5148,13 @@
         <v>17104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5181,13 +5163,13 @@
         <v>4925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5196,13 +5178,13 @@
         <v>22029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5199,13 @@
         <v>44295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -5232,13 +5214,13 @@
         <v>53517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -5247,13 +5229,13 @@
         <v>97813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5283,13 +5265,13 @@
         <v>972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5298,13 +5280,13 @@
         <v>972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5301,13 @@
         <v>4637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5340,7 +5322,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5349,13 +5331,13 @@
         <v>4637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5411,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5438,13 +5420,13 @@
         <v>939</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5453,13 +5435,13 @@
         <v>939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5456,13 @@
         <v>13699</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5489,13 +5471,13 @@
         <v>6328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5504,13 +5486,13 @@
         <v>20027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5507,13 @@
         <v>38529</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -5540,13 +5522,13 @@
         <v>45033</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>80</v>
@@ -5555,13 +5537,13 @@
         <v>83563</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,7 +5564,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5597,7 +5579,7 @@
         <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5612,7 +5594,7 @@
         <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5609,13 @@
         <v>1030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5648,7 +5630,7 @@
         <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5657,13 +5639,13 @@
         <v>1030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,7 +5701,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5737,7 +5719,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5746,13 +5728,13 @@
         <v>4229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5761,13 +5743,13 @@
         <v>4229</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5764,13 @@
         <v>18885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -5797,13 +5779,13 @@
         <v>9435</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -5812,13 +5794,13 @@
         <v>28319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5815,13 @@
         <v>29793</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -5848,13 +5830,13 @@
         <v>36037</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -5863,13 +5845,13 @@
         <v>65830</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5872,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5920,7 +5902,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,7 +5923,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5971,7 +5953,7 @@
         <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6009,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6045,7 +6027,7 @@
         <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6054,13 +6036,13 @@
         <v>2102</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -6069,13 +6051,13 @@
         <v>2102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6072,13 @@
         <v>9508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -6105,13 +6087,13 @@
         <v>5155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -6120,13 +6102,13 @@
         <v>14663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6123,13 @@
         <v>25434</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -6156,13 +6138,13 @@
         <v>29406</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -6171,13 +6153,13 @@
         <v>54840</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>31</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6180,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6213,7 +6195,7 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6228,7 +6210,7 @@
         <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6231,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6264,7 +6246,7 @@
         <v>39</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6279,7 +6261,7 @@
         <v>39</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,7 +6317,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6347,13 +6329,13 @@
         <v>4248</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6362,13 +6344,13 @@
         <v>1953</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -6377,13 +6359,13 @@
         <v>6202</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>377</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6380,13 @@
         <v>3251</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -6413,13 +6395,13 @@
         <v>6602</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -6428,13 +6410,13 @@
         <v>9853</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6431,13 @@
         <v>34467</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -6464,13 +6446,13 @@
         <v>39868</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -6479,13 +6461,13 @@
         <v>74335</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6488,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6521,7 +6503,7 @@
         <v>39</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6536,7 +6518,7 @@
         <v>39</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6539,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6572,7 +6554,7 @@
         <v>39</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6587,7 +6569,7 @@
         <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6637,13 @@
         <v>6242</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -6670,13 +6652,13 @@
         <v>11357</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -6688,10 +6670,10 @@
         <v>41</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>404</v>
+        <v>56</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6688,13 @@
         <v>80637</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>162</v>
+        <v>404</v>
       </c>
       <c r="H41" s="7">
         <v>30</v>
@@ -6721,13 +6703,13 @@
         <v>36513</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M41" s="7">
         <v>110</v>
@@ -6736,13 +6718,13 @@
         <v>117150</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6739,13 @@
         <v>206770</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>416</v>
+        <v>221</v>
       </c>
       <c r="H42" s="7">
         <v>201</v>
@@ -6772,13 +6754,13 @@
         <v>226368</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M42" s="7">
         <v>386</v>
@@ -6787,13 +6769,13 @@
         <v>433137</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,7 +6796,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -6823,13 +6805,13 @@
         <v>972</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -6838,13 +6820,13 @@
         <v>972</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6841,13 @@
         <v>5666</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6880,7 +6862,7 @@
         <v>39</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -6889,13 +6871,13 @@
         <v>5666</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +6933,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6973,7 +6955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351BD32-29A9-4EFE-915A-4D8B048DB489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63D70A-03CE-444C-B61E-BC209A7A77AD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6990,7 +6972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7097,13 +7079,13 @@
         <v>7774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>430</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -7112,13 +7094,13 @@
         <v>12874</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -7127,13 +7109,13 @@
         <v>20648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7130,13 @@
         <v>23738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -7163,13 +7145,13 @@
         <v>25879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7178,13 +7160,13 @@
         <v>49618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7181,13 @@
         <v>45206</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -7214,13 +7196,13 @@
         <v>22018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -7229,13 +7211,13 @@
         <v>67224</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7265,13 +7247,13 @@
         <v>996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7280,13 +7262,13 @@
         <v>996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,7 +7289,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7322,7 +7304,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7337,7 +7319,7 @@
         <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7387,13 @@
         <v>11359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -7420,13 +7402,13 @@
         <v>14304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7435,13 +7417,13 @@
         <v>25663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7438,13 @@
         <v>37809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -7471,13 +7453,13 @@
         <v>17149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -7486,13 +7468,13 @@
         <v>54958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7489,13 @@
         <v>57376</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -7522,13 +7504,13 @@
         <v>56347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>487</v>
+        <v>312</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -7537,13 +7519,13 @@
         <v>113722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7540,13 @@
         <v>1072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7579,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7588,13 +7570,13 @@
         <v>1072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,7 +7597,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7630,7 +7612,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7645,7 +7627,7 @@
         <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7695,13 @@
         <v>11399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>496</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7728,13 +7710,13 @@
         <v>13664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>498</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -7743,13 +7725,13 @@
         <v>25063</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,13 +7746,13 @@
         <v>39708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -7779,13 +7761,13 @@
         <v>37234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7794,13 +7776,13 @@
         <v>76942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +7797,13 @@
         <v>29130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -7830,13 +7812,13 @@
         <v>63689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -7845,13 +7827,13 @@
         <v>92819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,7 +7854,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7887,7 +7869,7 @@
         <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7902,7 +7884,7 @@
         <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>522</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,7 +7905,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7938,7 +7920,7 @@
         <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7953,7 +7935,7 @@
         <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>522</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8009,7 +7991,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8021,13 +8003,13 @@
         <v>21074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -8036,13 +8018,13 @@
         <v>15236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -8051,13 +8033,13 @@
         <v>36311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8054,13 @@
         <v>32729</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -8087,13 +8069,13 @@
         <v>25625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -8102,13 +8084,13 @@
         <v>58354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8105,13 @@
         <v>47614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -8138,13 +8120,13 @@
         <v>48968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8153,13 +8135,13 @@
         <v>96582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8156,13 @@
         <v>1764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8195,7 +8177,7 @@
         <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>546</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8204,13 +8186,13 @@
         <v>1764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,7 +8213,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8246,7 +8228,7 @@
         <v>39</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>546</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8261,7 +8243,7 @@
         <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,7 +8299,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8329,13 +8311,13 @@
         <v>9576</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -8344,13 +8326,13 @@
         <v>18553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -8359,13 +8341,13 @@
         <v>28129</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,13 +8362,13 @@
         <v>25835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8395,13 +8377,13 @@
         <v>29276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -8410,13 +8392,13 @@
         <v>55112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,13 +8413,13 @@
         <v>41181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>572</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -8446,13 +8428,13 @@
         <v>43612</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -8461,13 +8443,13 @@
         <v>84794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8488,7 +8470,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8503,7 +8485,7 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8518,7 +8500,7 @@
         <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8539,7 +8521,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8554,7 +8536,7 @@
         <v>39</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8569,7 +8551,7 @@
         <v>39</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8625,7 +8607,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8637,13 +8619,13 @@
         <v>14241</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -8652,13 +8634,13 @@
         <v>24297</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M34" s="7">
         <v>36</v>
@@ -8667,13 +8649,13 @@
         <v>38539</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>98</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8688,13 +8670,13 @@
         <v>15580</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -8703,13 +8685,13 @@
         <v>31042</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -8718,13 +8700,13 @@
         <v>46622</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,13 +8721,13 @@
         <v>36159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H36" s="7">
         <v>54</v>
@@ -8754,13 +8736,13 @@
         <v>63584</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M36" s="7">
         <v>93</v>
@@ -8769,13 +8751,13 @@
         <v>99743</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8790,28 +8772,28 @@
         <v>901</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -8820,13 +8802,13 @@
         <v>901</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8862,7 +8844,7 @@
         <v>39</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8877,7 +8859,7 @@
         <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>187</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8945,13 +8927,13 @@
         <v>75424</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H40" s="7">
         <v>91</v>
@@ -8960,13 +8942,13 @@
         <v>98928</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="M40" s="7">
         <v>163</v>
@@ -8975,13 +8957,13 @@
         <v>174352</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>619</v>
+        <v>491</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8996,13 +8978,13 @@
         <v>175399</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H41" s="7">
         <v>153</v>
@@ -9011,13 +8993,13 @@
         <v>166206</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M41" s="7">
         <v>319</v>
@@ -9026,13 +9008,13 @@
         <v>341605</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9047,13 +9029,13 @@
         <v>256667</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H42" s="7">
         <v>278</v>
@@ -9062,13 +9044,13 @@
         <v>298218</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M42" s="7">
         <v>518</v>
@@ -9077,13 +9059,13 @@
         <v>554885</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>637</v>
+        <v>452</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9098,13 +9080,13 @@
         <v>3737</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>641</v>
+        <v>117</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -9113,13 +9095,13 @@
         <v>996</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -9128,13 +9110,13 @@
         <v>4733</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>644</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,7 +9137,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -9170,7 +9152,7 @@
         <v>39</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -9185,7 +9167,7 @@
         <v>39</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9241,7 +9223,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36S3-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E8BC6E-C92E-4587-9092-6C5EC09B1AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E78AECF-BAF3-4404-ADE5-67CF10C9CF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87A3A347-1D0E-4040-9627-127483CCC37D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E69EDBA7-E388-4710-9585-91DE3BFA17EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="646">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2007 (Tasa respuesta: 6,39%)</t>
   </si>
@@ -79,19 +79,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>11,45%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>12,85%</t>
+    <t>15,57%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>7,93%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -100,28 +100,28 @@
     <t>35,68%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
   </si>
   <si>
     <t>14,92%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>Fruta y/o zumo</t>
@@ -130,1642 +130,1651 @@
     <t>61,74%</t>
   </si>
   <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
     <t>46,09%</t>
   </si>
   <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2016 (Tasa respuesta: 15,28%)</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 3 en 2015 (Tasa respuesta: 15,28%)</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>58,68%</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -1780,169 +1789,166 @@
     <t>21,29%</t>
   </si>
   <si>
-    <t>32,15%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>23,29%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
     <t>31,76%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>54,71%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -1951,10 +1957,16 @@
     <t>0,18%</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -2375,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256C7841-488E-4F8B-A73E-FCEAA5B8C52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B78DBF6-AC3A-49DA-91D4-0874D5A41F02}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3133,10 +3145,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3145,13 +3157,13 @@
         <v>5970</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3178,13 @@
         <v>11367</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3181,13 +3193,13 @@
         <v>7817</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3196,13 +3208,13 @@
         <v>19183</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3229,13 @@
         <v>26856</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -3232,13 +3244,13 @@
         <v>40133</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -3247,13 +3259,13 @@
         <v>66989</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,37 +3286,37 @@
         <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,37 +3337,37 @@
         <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,7 +3423,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3423,10 +3435,10 @@
         <v>3859</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>120</v>
@@ -3492,10 +3504,10 @@
         <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -3504,13 +3516,13 @@
         <v>16635</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3537,13 @@
         <v>12410</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3540,13 +3552,13 @@
         <v>29353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -3555,13 +3567,13 @@
         <v>41763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3594,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3597,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3612,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3645,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3648,7 +3660,7 @@
         <v>39</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3663,7 +3675,7 @@
         <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3731,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3731,13 +3743,13 @@
         <v>935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3746,13 +3758,13 @@
         <v>2112</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -3761,13 +3773,13 @@
         <v>3047</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3794,13 @@
         <v>2046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3797,13 +3809,13 @@
         <v>3373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3812,13 +3824,13 @@
         <v>5419</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3845,13 @@
         <v>11729</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -3848,13 +3860,13 @@
         <v>18578</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -3863,13 +3875,13 @@
         <v>30306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3902,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3905,7 +3917,7 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3920,7 +3932,7 @@
         <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3953,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3950,13 +3962,13 @@
         <v>976</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3965,13 +3977,13 @@
         <v>976</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,7 +4039,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4045,7 +4057,7 @@
         <v>39</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4054,13 +4066,13 @@
         <v>2396</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -4069,13 +4081,13 @@
         <v>2396</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4102,13 @@
         <v>821</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -4105,13 +4117,13 @@
         <v>4993</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4120,13 +4132,13 @@
         <v>5814</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4210,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4228,7 +4240,7 @@
         <v>39</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4261,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4279,7 +4291,7 @@
         <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -4530,13 +4542,13 @@
         <v>1134</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4578,13 @@
         <v>5783</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -4581,13 +4593,13 @@
         <v>5783</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4655,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A120EF08-4938-44E4-B392-3E006AE33B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F7B42B-AE06-4D8E-B1ED-757F9482C0A8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4789,13 +4801,13 @@
         <v>952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4810,7 +4822,7 @@
         <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4819,13 +4831,13 @@
         <v>952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4852,13 @@
         <v>18190</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4855,13 +4867,13 @@
         <v>4068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -4870,13 +4882,13 @@
         <v>22258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4903,13 @@
         <v>34250</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4906,13 +4918,13 @@
         <v>22506</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -4921,13 +4933,13 @@
         <v>56755</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4960,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4963,7 +4975,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4999,7 +5011,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5014,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5097,13 +5109,13 @@
         <v>1041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5112,13 +5124,13 @@
         <v>2134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5127,13 +5139,13 @@
         <v>3176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5160,13 @@
         <v>17104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5163,13 +5175,13 @@
         <v>4925</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5178,13 +5190,13 @@
         <v>22029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5211,13 @@
         <v>44295</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -5214,13 +5226,13 @@
         <v>53517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>88</v>
@@ -5229,13 +5241,13 @@
         <v>97813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5268,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5265,13 +5277,13 @@
         <v>972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5280,13 +5292,13 @@
         <v>972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5313,13 @@
         <v>4637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5322,7 +5334,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5331,13 +5343,13 @@
         <v>4637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5420,13 +5432,13 @@
         <v>939</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5435,13 +5447,13 @@
         <v>939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5468,13 @@
         <v>13699</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5471,13 +5483,13 @@
         <v>6328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5486,13 +5498,13 @@
         <v>20027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5519,13 @@
         <v>38529</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -5522,13 +5534,13 @@
         <v>45033</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>80</v>
@@ -5537,13 +5549,13 @@
         <v>83563</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,7 +5576,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5579,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5594,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,7 +5642,7 @@
         <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5645,7 +5657,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +5713,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5719,7 +5731,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5728,13 +5740,13 @@
         <v>4229</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5743,13 +5755,13 @@
         <v>4229</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5776,13 @@
         <v>18885</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -5779,13 +5791,13 @@
         <v>9435</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -5794,13 +5806,13 @@
         <v>28319</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5827,13 @@
         <v>29793</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -5830,13 +5842,13 @@
         <v>36037</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -5845,13 +5857,13 @@
         <v>65830</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5884,7 @@
         <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5902,7 +5914,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,7 +5935,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5953,7 +5965,7 @@
         <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6021,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6027,7 +6039,7 @@
         <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6036,13 +6048,13 @@
         <v>2102</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -6051,13 +6063,13 @@
         <v>2102</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6084,13 @@
         <v>9508</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -6087,13 +6099,13 @@
         <v>5155</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -6102,13 +6114,13 @@
         <v>14663</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6135,13 @@
         <v>25434</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -6138,13 +6150,13 @@
         <v>29406</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -6153,13 +6165,13 @@
         <v>54840</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,7 +6192,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6195,22 +6207,22 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6243,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6246,22 +6258,22 @@
         <v>39</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6329,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6329,13 +6341,13 @@
         <v>4248</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6344,13 +6356,13 @@
         <v>1953</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -6359,13 +6371,13 @@
         <v>6202</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6392,13 @@
         <v>3251</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -6395,13 +6407,13 @@
         <v>6602</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -6410,13 +6422,13 @@
         <v>9853</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6443,13 @@
         <v>34467</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -6449,10 +6461,10 @@
         <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -6461,13 +6473,13 @@
         <v>74335</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,37 +6500,37 @@
         <v>39</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,37 +6551,37 @@
         <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6649,13 @@
         <v>6242</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -6652,7 +6664,7 @@
         <v>11357</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>399</v>
@@ -6670,10 +6682,10 @@
         <v>41</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>56</v>
+        <v>401</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>401</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,7 +6757,7 @@
         <v>412</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="H42" s="7">
         <v>201</v>
@@ -6754,10 +6766,10 @@
         <v>226368</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>415</v>
@@ -6772,10 +6784,10 @@
         <v>416</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6808,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -6844,25 +6856,25 @@
         <v>423</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -6871,13 +6883,13 @@
         <v>5666</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,7 +6945,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6955,7 +6967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63D70A-03CE-444C-B61E-BC209A7A77AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732A1E1-6EFD-4B97-88FB-5A60059F2C4B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6972,7 +6984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7079,13 +7091,13 @@
         <v>7774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -7094,13 +7106,13 @@
         <v>12874</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -7109,13 +7121,13 @@
         <v>20648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7142,13 @@
         <v>23738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -7145,13 +7157,13 @@
         <v>25879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7160,13 +7172,13 @@
         <v>49618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7193,13 @@
         <v>45206</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -7196,13 +7208,13 @@
         <v>22018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M6" s="7">
         <v>63</v>
@@ -7211,13 +7223,13 @@
         <v>67224</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,7 +7250,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7247,13 +7259,13 @@
         <v>996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7262,13 +7274,13 @@
         <v>996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,7 +7301,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7304,7 +7316,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7319,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,13 +7399,13 @@
         <v>11359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -7402,13 +7414,13 @@
         <v>14304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7417,13 +7429,13 @@
         <v>25663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7450,13 @@
         <v>37809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -7453,13 +7465,13 @@
         <v>17149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -7468,13 +7480,13 @@
         <v>54958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7501,13 @@
         <v>57376</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -7504,13 +7516,13 @@
         <v>56347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>312</v>
+        <v>485</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -7519,13 +7531,13 @@
         <v>113722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7558,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7561,7 +7573,7 @@
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -7570,13 +7582,13 @@
         <v>1072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,7 +7609,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7612,7 +7624,7 @@
         <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7627,7 +7639,7 @@
         <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7707,13 @@
         <v>11399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7710,13 +7722,13 @@
         <v>13664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -7725,13 +7737,13 @@
         <v>25063</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,13 +7758,13 @@
         <v>39708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -7761,13 +7773,13 @@
         <v>37234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7776,13 +7788,13 @@
         <v>76942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7809,13 @@
         <v>29130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -7812,13 +7824,13 @@
         <v>63689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -7827,13 +7839,13 @@
         <v>92819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,7 +7866,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7869,7 +7881,7 @@
         <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7884,7 +7896,7 @@
         <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,7 +7917,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7920,7 +7932,7 @@
         <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7935,7 +7947,7 @@
         <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,7 +8003,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8003,13 +8015,13 @@
         <v>21074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -8018,13 +8030,13 @@
         <v>15236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -8033,13 +8045,13 @@
         <v>36311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>523</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8066,13 @@
         <v>32729</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -8069,13 +8081,13 @@
         <v>25625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -8084,13 +8096,13 @@
         <v>58354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8117,13 @@
         <v>47614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -8120,13 +8132,13 @@
         <v>48968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8135,13 +8147,13 @@
         <v>96582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8168,13 @@
         <v>1764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>544</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8177,7 +8189,7 @@
         <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>546</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8186,13 +8198,13 @@
         <v>1764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8225,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8228,7 +8240,7 @@
         <v>39</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>546</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8243,7 +8255,7 @@
         <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,7 +8311,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8311,13 +8323,13 @@
         <v>9576</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -8326,13 +8338,13 @@
         <v>18553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -8341,13 +8353,13 @@
         <v>28129</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,13 +8374,13 @@
         <v>25835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8377,13 +8389,13 @@
         <v>29276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -8392,13 +8404,13 @@
         <v>55112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,13 +8425,13 @@
         <v>41181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>571</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -8428,13 +8440,13 @@
         <v>43612</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -8443,13 +8455,13 @@
         <v>84794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,7 +8482,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8485,7 +8497,7 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8500,7 +8512,7 @@
         <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,7 +8533,7 @@
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8536,7 +8548,7 @@
         <v>39</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8551,7 +8563,7 @@
         <v>39</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8607,7 +8619,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8619,13 +8631,13 @@
         <v>14241</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>306</v>
+        <v>583</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H34" s="7">
         <v>20</v>
@@ -8634,13 +8646,13 @@
         <v>24297</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M34" s="7">
         <v>36</v>
@@ -8649,13 +8661,13 @@
         <v>38539</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,13 +8682,13 @@
         <v>15580</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -8685,13 +8697,13 @@
         <v>31042</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -8700,13 +8712,13 @@
         <v>46622</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,13 +8733,13 @@
         <v>36159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>596</v>
+        <v>444</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>54</v>
@@ -8736,13 +8748,13 @@
         <v>63584</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M36" s="7">
         <v>93</v>
@@ -8751,13 +8763,13 @@
         <v>99743</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8784,13 @@
         <v>901</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -8793,7 +8805,7 @@
         <v>39</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -8802,13 +8814,13 @@
         <v>901</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>609</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8844,7 +8856,7 @@
         <v>39</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8859,7 +8871,7 @@
         <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,13 +8939,13 @@
         <v>75424</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H40" s="7">
         <v>91</v>
@@ -8942,10 +8954,10 @@
         <v>98928</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>614</v>
+        <v>352</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>615</v>
@@ -8960,10 +8972,10 @@
         <v>616</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>491</v>
+        <v>617</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8978,13 +8990,13 @@
         <v>175399</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H41" s="7">
         <v>153</v>
@@ -8993,13 +9005,13 @@
         <v>166206</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M41" s="7">
         <v>319</v>
@@ -9008,13 +9020,13 @@
         <v>341605</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9029,13 +9041,13 @@
         <v>256667</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H42" s="7">
         <v>278</v>
@@ -9044,13 +9056,13 @@
         <v>298218</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M42" s="7">
         <v>518</v>
@@ -9059,13 +9071,13 @@
         <v>554885</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>452</v>
+        <v>635</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9080,13 +9092,13 @@
         <v>3737</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>117</v>
+        <v>639</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -9095,13 +9107,13 @@
         <v>996</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -9110,13 +9122,13 @@
         <v>4733</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>327</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9137,7 +9149,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -9152,7 +9164,7 @@
         <v>39</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -9167,7 +9179,7 @@
         <v>39</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9223,7 +9235,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
